--- a/ML/LinearRegression_Sample_Model.xlsx
+++ b/ML/LinearRegression_Sample_Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,16 +10,27 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="8_{32F6C76D-E9B3-49A8-BEE9-55DFD093DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218A214B-11D7-4066-BC51-EB0B86D671BA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3193EDBB-D42E-4F4D-9B4E-B9D833CCA0AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{3193EDBB-D42E-4F4D-9B4E-B9D833CCA0AF}"/>
   </bookViews>
   <sheets>
     <sheet name="LInear Regression Example" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,103 +39,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
     <t>Hours Studied</t>
   </si>
   <si>
-    <t>SUMMARY OUTPUT</t>
-  </si>
-  <si>
-    <t>Regression Statistics</t>
-  </si>
-  <si>
-    <t>Multiple R</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>Adjusted R Square</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95.0%</t>
-  </si>
-  <si>
-    <t>Upper 95.0%</t>
-  </si>
-  <si>
     <t>RESIDUAL OUTPUT</t>
   </si>
   <si>
     <t>Observation</t>
   </si>
   <si>
+    <t>Predicted Actual Exam Score</t>
+  </si>
+  <si>
     <t>Residuals</t>
   </si>
   <si>
+    <t>Standard Residuals</t>
+  </si>
+  <si>
+    <t>SIMPLE LINEAR REGRESSION MODEL</t>
+  </si>
+  <si>
+    <t>To explain SSE, SSR and SST</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Output of LR Model</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>Actual Exam Score</t>
+  </si>
+  <si>
     <t>Predicted Exam Score</t>
   </si>
   <si>
-    <t>Standard Residuals</t>
-  </si>
-  <si>
-    <t>Actual Exam Score</t>
-  </si>
-  <si>
-    <t>Output of LR Model</t>
-  </si>
-  <si>
-    <t>To explain SSE, SSR and SST</t>
+    <t>Mean of X</t>
+  </si>
+  <si>
+    <t>Mean of Y</t>
   </si>
   <si>
     <t>Error / Residue</t>
@@ -133,57 +171,36 @@
     <t>Squared Error/Residues</t>
   </si>
   <si>
-    <t>SSE</t>
+    <t>Y mean</t>
+  </si>
+  <si>
+    <t>Predicted - Y Mean</t>
+  </si>
+  <si>
+    <t>(Predicted - Y Mean)^2</t>
+  </si>
+  <si>
+    <t>Actual - Y Mean</t>
+  </si>
+  <si>
+    <t>(Actual - Y Mean)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean of X and Y </t>
   </si>
   <si>
     <t xml:space="preserve">SSE </t>
   </si>
   <si>
-    <t>Predicted - Y Mean</t>
-  </si>
-  <si>
-    <t>Y mean</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>(Predicted - Y Mean)^2</t>
-  </si>
-  <si>
-    <t>SSR</t>
-  </si>
-  <si>
-    <t>Actual - Y Mean</t>
-  </si>
-  <si>
-    <t>(Actual - Y Mean)^2</t>
-  </si>
-  <si>
-    <t>SST</t>
-  </si>
-  <si>
     <t xml:space="preserve">R^2 = </t>
   </si>
   <si>
+    <t>SSR/SST (Accuracy)</t>
+  </si>
+  <si>
     <t>Error %</t>
   </si>
   <si>
-    <t>SSR/SST (Accuracy)</t>
-  </si>
-  <si>
-    <t>Predicted Actual Exam Score</t>
-  </si>
-  <si>
-    <t>SIMPLE LINEAR REGRESSION MODEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean of X and Y </t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -191,19 +208,13 @@
   </si>
   <si>
     <t xml:space="preserve">Y </t>
-  </si>
-  <si>
-    <t>Mean of X</t>
-  </si>
-  <si>
-    <t>Mean of Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,6 +425,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,11 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2073,7 +2083,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="777.21">1233 1038 15821,'-6'4'24,"3"0"96,0 1 224,2-4-195,-1 1-121,2-1-16,9-1-36,1 0-4,2 0-32,1 0-93,4 0-219,24-7-1632,-20 7 184,0 0-680,1 0-784,-2 0 423</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1229.08">1303 1161 13137,'-24'15'448,"14"-9"-16,0-1 116,4-2-172,0 0-84,3-2-8,23-1-200,-7 0-108,4-9 16,6 0-156,1 1-296,5 1-592,29-6-2872,-27 4 476,-2 2 611,0 0 705</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1569.87">1856 940 13645,'-1'-3'95,"0"0"-1,1 0 1,-1 0 0,-1 0-1,1 0 1,0 0-1,-1 1 1,1-1 0,-1 0-1,0 1 1,0-1-1,0 1 1,0 0 0,0 0-1,-1 0 1,1 0-1,-1 0 1,1 0 0,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1 0,-4-1-1,1 0-174,1 0-1,-1 0 1,0 1 0,1 0-1,-1 0 1,0 0-1,0 1 1,1-1 0,-1 1-1,0 1 1,0-1 0,0 1-1,-9 3 1,8-2-119,0 1 0,0 1 0,0-1 0,1 1 0,0 0 0,-1 1 0,2 0 1,-1 0-1,0 0 0,1 0 0,0 1 0,-4 6 0,5-5-63,0 0-1,0 0 0,1 0 1,0 1-1,0-1 0,0 1 1,-2 15-1,5-20 221,0-1 1,0 1-1,-1 0 1,2-1-1,-1 1 0,0 0 1,0-1-1,1 1 0,0 0 1,-1-1-1,1 1 0,0-1 1,0 1-1,0-1 0,1 0 1,-1 1-1,1-1 1,-1 0-1,1 0 0,0 0 1,0 0-1,-1 0 0,1 0 1,1-1-1,-1 1 0,0-1 1,0 1-1,1-1 0,-1 0 1,0 0-1,4 1 0,6 2 151,-1-2-1,1 0 1,0 0-1,-1-1 1,18 0-1,-25-2 66,-1 0 0,1 0 0,-1 0-1,1 0 1,-1 0 0,0-1 0,0 0 0,1 1-1,-1-1 1,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1-1,1-1 1,-1 0 0,0 0 0,3-5 0,2-3 398,0 0 1,-1 0 0,-1 0-1,7-18 1,-9 18-424,0 1 1,-1-1-1,0 0 0,0-17 1,-2 47-288,1 6 72,1 0 0,9 39 0,-6-38-29,-1-1 1,2 43-1,-7-67 52,1 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 0 1,0 0-1,-1 0 0,1 0 1,-1-1-1,1 1 1,-1 0-1,1 0 0,-1 0 1,1-1-1,-1 1 1,0 0-1,1-1 0,-1 1 1,0-1-1,0 1 1,0-1-1,1 1 0,-1-1 1,-2 1-1,-1 1-308,0-1 1,-1 0-1,1 0 1,0 0-1,-1 0 0,-5-1 1,2 0-699,0 0 1,0 0 0,0-1-1,1 0 1,-1-1 0,-14-4-1,5-2-994,1 0 374</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2128.99">2022 875 12089,'0'-1'162,"1"1"0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,5-18 487,-3 17-649,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,6-2-1,-7 3-1,1-1 0,-1 1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,2 2 0,0 0-115,-1 0-1,1 0 1,-1 1 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,-1 0 1,1 0 0,-1 0-1,1-1 1,-1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0-1-1,0 1 1,-1 0 0,1-1-1,-4 5 1,-5 7-184,-10 13 552,26-30 20,0 1 0,1-1 0,-1 1 0,1 1 0,-1-1 0,0 1 0,0 0 1,1 1-1,7 2 0,-4 2-202,-5-4-63,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 1-1,6 7 1,-9-10-35,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 0,-1 0 1,0 1-69,1-1 1,-1 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,-2 2 0,2-2-32,-14 12-918,0-1 0,-17 11 1,28-21 686,0 0-1,-1 0 1,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1-1,0 0 1,0 0 0,0 0 0,-11 0 0,-20-9-3412</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2128.98">2022 875 12089,'0'-1'162,"1"1"0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 1,1 0-1,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,5-18 487,-3 17-649,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1 0-1,-1 0 1,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,6-2-1,-7 3-1,1-1 0,-1 1 1,1 0-1,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,2 2 0,0 0-115,-1 0-1,1 0 1,-1 1 0,-1-1-1,1 1 1,-1 0-1,1-1 1,-1 1-1,-1 0 1,1 0 0,-1 0-1,1-1 1,-1 1-1,-1 0 1,1 0 0,-1 0-1,0 0 1,0-1-1,0 1 1,-1 0 0,1-1-1,-4 5 1,-5 7-184,-10 13 552,26-30 20,0 1 0,1-1 0,-1 1 0,1 1 0,-1-1 0,0 1 0,0 0 1,1 1-1,7 2 0,-4 2-202,-5-4-63,-1 1 1,1 0-1,-1 0 1,0 0-1,1 0 1,-1 1-1,6 7 1,-9-10-35,-1 0 0,1 0 0,-1 0 0,1 0 1,-1 0-1,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 1,0 0-1,0 0 0,0 0 0,0 0 0,0 1 0,-1 0 1,0 1-69,1-1 1,-1 0 0,-1 0 0,1 0 0,0 0 0,0 0-1,-1 0 1,1 0 0,-1 0 0,0 0 0,-2 2 0,2-2-32,-14 12-918,0-1 0,-17 11 1,28-21 686,0 0-1,-1 0 1,1 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1-1,0 0 1,0 0 0,0 0 0,-11 0 0,-20-9-3412</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2490.85">2446 718 10641,'0'91'5032,"0"86"-6042,-9-38-5697,6-102 3209,0-15 1280</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2829.67">2405 859 12185,'-7'-3'76,"-2"3"40,3 0 52,-1 0-52,3 0-48,-6 16-500,8-9-160,2 2-372,0 22-3704,9-21 2451,1 0 401</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2830.67">2671 946 15581,'3'0'228,"-2"0"44,2 0 877</inkml:trace>
@@ -2088,15 +2098,15 @@
     <tableColumn id="1" xr3:uid="{6227DF8B-AD32-4AE6-AFBB-9CCACCD2B61A}" name="Hours Studied"/>
     <tableColumn id="2" xr3:uid="{A0EB0E58-AEBF-4D57-889D-2EB53020E500}" name="Actual Exam Score"/>
     <tableColumn id="3" xr3:uid="{28A8F314-CDCB-4E06-96DC-67E8E8D4D13E}" name="Predicted Exam Score" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{4A43ABF6-04D4-4C86-BEED-E8DE900F2ABE}" name="Mean of X" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{CA0AF873-98EF-40EA-9F53-2EA2736048C8}" name="Mean of Y" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{C81047F9-613D-49BD-94C1-72343CD61941}" name="Error / Residue" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{4A43ABF6-04D4-4C86-BEED-E8DE900F2ABE}" name="Mean of X" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{CA0AF873-98EF-40EA-9F53-2EA2736048C8}" name="Mean of Y" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C81047F9-613D-49BD-94C1-72343CD61941}" name="Error / Residue" dataDxfId="2">
       <calculatedColumnFormula>Table2[[#This Row],[Predicted Exam Score]]-Table2[[#This Row],[Actual Exam Score]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C32B23BA-CEE4-4C56-9ED7-84E3D4C23E5D}" name="Squared Error/Residues" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{C32B23BA-CEE4-4C56-9ED7-84E3D4C23E5D}" name="Squared Error/Residues" dataDxfId="1">
       <calculatedColumnFormula>Table2[[#This Row],[Error / Residue]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FB6101C7-06D0-465B-A04D-9FF7D22DCB47}" name="Y mean" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{FB6101C7-06D0-465B-A04D-9FF7D22DCB47}" name="Y mean" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(C7:C11)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2407,92 +2417,92 @@
       <selection activeCell="A16" sqref="A16:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1"/>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
       </c>
       <c r="B4">
         <v>0.96203053082027878</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="14">
         <v>0.92550274223034734</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.90067032297379646</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2.3309511649396133</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15" thickBot="1">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2510,9 +2520,9 @@
         <v>8.8307296499460803E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2524,9 +2534,9 @@
         <v>5.4333333333333398</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -2538,37 +2548,37 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" thickBot="1"/>
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>23</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>12</v>
       </c>
       <c r="B17">
         <v>65.7</v>
@@ -2595,9 +2605,9 @@
         <v>73.480197153333805</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>4.4999999999999982</v>
@@ -2624,27 +2634,27 @@
         <v>6.8458177047817603</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15" thickBot="1"/>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2658,7 +2668,7 @@
         <v>-1.0898302901597572</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2672,7 +2682,7 @@
         <v>1.1393680306215614</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2686,7 +2696,7 @@
         <v>0.89167932831252605</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2700,7 +2710,7 @@
         <v>-0.8421415878507148</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="15" thickBot="1">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -2728,92 +2738,92 @@
       <selection activeCell="F7" sqref="F7:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="23.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="B2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1">
       <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1">
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="J5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="J5" s="17" t="s">
+      <c r="F6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19" t="s">
+      <c r="H6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="K6" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2857,7 +2867,7 @@
         <v>125.44000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2901,7 +2911,7 @@
         <v>4.8400000000000123</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2945,7 +2955,7 @@
         <v>3.2399999999999896</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2989,7 +2999,7 @@
         <v>7.8399999999999839</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" thickBot="1">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2999,7 +3009,7 @@
       <c r="D11" s="1">
         <v>88.199999999999989</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11">
         <v>3</v>
       </c>
       <c r="F11">
@@ -3033,15 +3043,15 @@
         <v>77.439999999999955</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="21">
+        <v>49</v>
+      </c>
+      <c r="B12" s="15">
         <f>AVERAGE(B7:B11)</f>
         <v>3</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <f>AVERAGE(C7:C11)</f>
         <v>79.2</v>
       </c>
@@ -3059,89 +3069,89 @@
         <v>16.299999999999944</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K12" s="11">
         <f>SUM(K7:K11)</f>
         <v>202.4999999999996</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M12" s="11">
         <f>SUM(M7:M11)</f>
         <v>218.8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="18">
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C23" s="9">
         <f>H12</f>
         <v>16.299999999999944</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="18">
       <c r="B24" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C24" s="9">
         <f>K12</f>
         <v>202.4999999999996</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K24" s="13">
         <f>K12/M12</f>
         <v>0.92550274223034545</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="18">
       <c r="J26" s="13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K26" s="13">
         <f>H12/M12</f>
         <v>7.4497257769652395E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" thickBot="1"/>
+    <row r="28" spans="1:11">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>65.7</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>4.4999999999999982</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32">
         <f>B30*B12+B29</f>
